--- a/5.GestionDotaciones/DAPRE/Bahia Portete/InformacionTransporteDotacionBahia.xlsx
+++ b/5.GestionDotaciones/DAPRE/Bahia Portete/InformacionTransporteDotacionBahia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones\2018\DAPRE\IngresoInventario\Bahia Portete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\5.GestionDotaciones\DAPRE\Bahia Portete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331545F4-863C-46F2-8EE9-F42291E12709}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E341F-8DB9-4D60-876D-CDD2D3B8ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoTransporte" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">InfoTransporte!$A$1:$O$19</definedName>
     <definedName name="Clima">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="164">
   <si>
     <t>Regional</t>
   </si>
@@ -501,14 +502,6 @@
     <t>JUEGO DE COCINA (NEVERA)</t>
   </si>
   <si>
-    <t>La Guajira</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADRIANA PATRICIA RUMBO LOPEZ
-CC 56098900
-CELULAR: 3017284282 - 3137986689</t>
-  </si>
-  <si>
     <t xml:space="preserve">COMUNIDAD DE IHAM, URIBIA, LA GUAJIRA </t>
   </si>
   <si>
@@ -527,10 +520,20 @@
     <t>Hula Hula x 16</t>
   </si>
   <si>
-    <t>Carrera 13 A #11-00 Agrupación Industrial Montana,Mosquera</t>
-  </si>
-  <si>
-    <t>Jaime Andres Silva CEL:3103596218  Alba Marcela Romero CEL:3123013556 Paula Andrea Ospina CEL:3165543129 IP: 100583</t>
+    <t>Jessica Peñaranda
+CELULAR: 3004451724</t>
+  </si>
+  <si>
+    <t>Jaime Andres Silva CEL:3103596218</t>
+  </si>
+  <si>
+    <t>Sede Nacional</t>
+  </si>
+  <si>
+    <t>Bogotá D.C</t>
+  </si>
+  <si>
+    <t>25 a 29 de febrero 2019</t>
   </si>
 </sst>
 </file>
@@ -829,10 +832,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,34 +1142,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="44" t="s">
@@ -1174,24 +1177,24 @@
       </c>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1201,33 +1204,33 @@
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="41">
-        <v>43392</v>
+      <c r="E3" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -1253,28 +1256,28 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="41">
-        <v>43392</v>
+      <c r="E4" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
@@ -1300,28 +1303,28 @@
     </row>
     <row r="5" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="41">
-        <v>43392</v>
+      <c r="E5" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
@@ -1347,28 +1350,28 @@
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="41">
-        <v>43392</v>
+      <c r="E6" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>18</v>
@@ -1394,28 +1397,28 @@
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="41">
-        <v>43392</v>
+      <c r="E7" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -1441,28 +1444,28 @@
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="41">
-        <v>43392</v>
+      <c r="E8" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
@@ -1488,28 +1491,28 @@
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41">
-        <v>43392</v>
+      <c r="E9" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1535,28 +1538,28 @@
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="41">
-        <v>43392</v>
+      <c r="E10" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -1582,28 +1585,28 @@
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="41">
-        <v>43392</v>
+      <c r="E11" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1629,28 +1632,28 @@
     </row>
     <row r="12" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="41">
-        <v>43392</v>
+      <c r="E12" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -1676,28 +1679,28 @@
     </row>
     <row r="13" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="41">
-        <v>43392</v>
+      <c r="E13" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -1723,28 +1726,28 @@
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="41">
-        <v>43392</v>
+      <c r="E14" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -1770,28 +1773,28 @@
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="41">
-        <v>43392</v>
+      <c r="E15" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>31</v>
@@ -1818,28 +1821,28 @@
     </row>
     <row r="16" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="41">
-        <v>43392</v>
+      <c r="E16" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>33</v>
@@ -1865,28 +1868,28 @@
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="41">
-        <v>43392</v>
+      <c r="E17" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>34</v>
@@ -1912,31 +1915,31 @@
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="41">
-        <v>43392</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="J18" s="4">
         <v>8</v>
@@ -1955,36 +1958,36 @@
         <v>151401</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="41">
-        <v>43392</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J19" s="4">
         <v>1.1000000000000001</v>
@@ -2003,7 +2006,7 @@
         <v>14876</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2014,12 +2017,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2027,6 +2024,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
